--- a/biology/Médecine/Auricule_gauche/Auricule_gauche.xlsx
+++ b/biology/Médecine/Auricule_gauche/Auricule_gauche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'auricule gauche est une structure anatomique formant une petite poche appendue à paroi de l'atrium gauche, pouvant être le siège d'un thrombus lors d'une fibrillation atriale.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il constitue un reliquat embryonnaire de l'atrium gauche[1]. Il est très souvent trabéculé et peut comporter plusieurs lobes[2]. Son volume moyen est de 5 ml, avec de fortes variations entre les individus[3]. Il est un peu plus important en cas de fibrillation atriale[3]. Il a la forme d'un manche à air dans près de la moitié des cas. Autrement il peut prendre la forme d'une aile de poulet, d'un cactus ou d'un chou-fleur[4].
-Sa paroi est constitué d'un endocarde, d'un myocarde et d'un épicarde[5]. Il est riche en cellules progénitrices[6].
-La présence d'un auricule accessoire, en plus de l'auricule classique, est fréquente, associée à un risque plus important de survenue d'une fibrillation atriale[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il constitue un reliquat embryonnaire de l'atrium gauche. Il est très souvent trabéculé et peut comporter plusieurs lobes. Son volume moyen est de 5 ml, avec de fortes variations entre les individus. Il est un peu plus important en cas de fibrillation atriale. Il a la forme d'un manche à air dans près de la moitié des cas. Autrement il peut prendre la forme d'une aile de poulet, d'un cactus ou d'un chou-fleur.
+Sa paroi est constitué d'un endocarde, d'un myocarde et d'un épicarde. Il est riche en cellules progénitrices.
+La présence d'un auricule accessoire, en plus de l'auricule classique, est fréquente, associée à un risque plus important de survenue d'une fibrillation atriale.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un lieu de production privilégié de facteur natriurétique auriculaire, dont la sécrétion est favorisée par la distension de cette poche[8]. 
-Il pourrait jouer un rôle de réserve de capacitance en cas d'augmentation de la pression intra-atriale, ce qui pourrait expliquer les quelques cas d'insuffisance cardiaque lors de sa fermeture[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un lieu de production privilégié de facteur natriurétique auriculaire, dont la sécrétion est favorisée par la distension de cette poche. 
+Il pourrait jouer un rôle de réserve de capacitance en cas d'augmentation de la pression intra-atriale, ce qui pourrait expliquer les quelques cas d'insuffisance cardiaque lors de sa fermeture.
 </t>
         </is>
       </c>
@@ -576,11 +592,13 @@
           <t>Exploration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Du fait de sa profondeur, il est difficilement visualisé en échocardiographie. 
-L'échographie transœsophagienne permet d'en analyser la forme et la taille, de détecter la présence d'un thrombus ou d'une image de « contraste spontanée », de mesurer la vitesse du flux sanguin en son sein[9].
-Le scanner cardiaque permet de dépister les thrombus avec une fiabilité équivalente à celle de l'échographie transœsophagienne[10]. L'IRM cardiaque peut constituer une alternative[11]. 
+L'échographie transœsophagienne permet d'en analyser la forme et la taille, de détecter la présence d'un thrombus ou d'une image de « contraste spontanée », de mesurer la vitesse du flux sanguin en son sein.
+Le scanner cardiaque permet de dépister les thrombus avec une fiabilité équivalente à celle de l'échographie transœsophagienne. L'IRM cardiaque peut constituer une alternative. 
 </t>
         </is>
       </c>
@@ -609,10 +627,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le lieu préférentiel de la formation de thrombus lors d'une fibrillation atriale. La taille de l'auricule[12], de même que certaines formes[13], sont corrélées avec le risque d'accident embolique, de même qu'un flux sanguin diminué à son niveau[14]. Lorsque le risque d'accident vasculaire cérébral est considéré comme élevé, avec impossibilité de mettre le patient sous un anticoagulant au long cours, une fermeture de l'auricule gauche peut être proposée.
-L'auricule peut également intervenir dans la genèse d'une fibrillation atriale, pouvant ainsi constituer une cible d'ablation par radiofréquence[15]. En effet, l'isolement électrique de cette structure diminue le risque de récidive de l'arythmie[16].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le lieu préférentiel de la formation de thrombus lors d'une fibrillation atriale. La taille de l'auricule, de même que certaines formes, sont corrélées avec le risque d'accident embolique, de même qu'un flux sanguin diminué à son niveau. Lorsque le risque d'accident vasculaire cérébral est considéré comme élevé, avec impossibilité de mettre le patient sous un anticoagulant au long cours, une fermeture de l'auricule gauche peut être proposée.
+L'auricule peut également intervenir dans la genèse d'une fibrillation atriale, pouvant ainsi constituer une cible d'ablation par radiofréquence. En effet, l'isolement électrique de cette structure diminue le risque de récidive de l'arythmie.
 </t>
         </is>
       </c>
